--- a/src/main/java/com/longstudy/compiler/result/result2.xlsx
+++ b/src/main/java/com/longstudy/compiler/result/result2.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -72,6 +72,14 @@
       <name val="宋体"/>
       <sz val="18.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -95,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -121,11 +129,12 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="true" vertical="center" horizontal="center"/>
@@ -155,6 +164,14 @@
       <alignment wrapText="true" vertical="center" horizontal="center" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" quotePrefix="false" applyBorder="true" applyFill="true">
+      <alignment horizontal="general" wrapText="false" vertical="center" shrinkToFit="false"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="true" quotePrefix="false" applyBorder="true" applyFill="true">
+      <alignment horizontal="general" wrapText="false" vertical="center" shrinkToFit="false"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -417,15 +434,15 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>7.0</v>
+        <v>126.0</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>char</t>
         </is>
       </c>
     </row>
@@ -435,15 +452,15 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>操作符</t>
+          <t>标识符</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>++</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -453,33 +470,33 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>=</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="25.0">
       <c r="A17" s="5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>129.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>;</t>
         </is>
       </c>
     </row>
@@ -497,7 +514,7 @@
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>i</t>
         </is>
       </c>
     </row>
@@ -511,11 +528,11 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>+=</t>
+          <t>++</t>
         </is>
       </c>
     </row>
@@ -525,121 +542,193 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="25.0">
       <c r="A21" s="5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>界符</t>
+          <t>关键字</t>
         </is>
       </c>
       <c r="C21" s="7" t="n">
-        <v>12.0</v>
+        <v>129.0</v>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="25.0">
       <c r="A22" s="5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
         <v>7.0</v>
       </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>关键字</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>124.0</v>
-      </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="25.0">
       <c r="A23" s="5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>标识符</t>
+          <t>操作符</t>
         </is>
       </c>
       <c r="C23" s="7" t="n">
-        <v>7.0</v>
+        <v>43.0</v>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>flag</t>
+          <t>+=</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="25.0">
       <c r="A24" s="5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
         <v>7.0</v>
       </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>操作符</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>31.0</v>
-      </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>i</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="25.0">
       <c r="A25" s="5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>关键字</t>
+          <t>界符</t>
         </is>
       </c>
       <c r="C25" s="7" t="n">
-        <v>134.0</v>
+        <v>12.0</v>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="26" customHeight="true" ht="25.0">
       <c r="A26" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" customHeight="true" ht="25.0">
+      <c r="A27" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>标识符</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="n">
         <v>7.0</v>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="true" ht="25.0">
+      <c r="A28" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>操作符</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" customHeight="true" ht="25.0">
+      <c r="A29" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" customHeight="true" ht="25.0">
+      <c r="A30" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>界符</t>
         </is>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C30" s="7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr">
         <is>
           <t>;</t>
         </is>
@@ -674,6 +763,16 @@
         </is>
       </c>
     </row>
+    <row r="2" customHeight="true" ht="25.0">
+      <c r="A2" s="11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Lexical error at Line [4]: [字符常量格式不正确].</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
